--- a/data.xlsx
+++ b/data.xlsx
@@ -368,10 +368,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -386,7 +389,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>1000000001</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -397,7 +400,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1000000002</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -408,7 +411,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1000000003</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -419,7 +422,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>1000000004</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
